--- a/kvision/ksample/mytable/result/003_b91f8.xlsx
+++ b/kvision/ksample/mytable/result/003_b91f8.xlsx
@@ -35,13 +35,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -50,9 +64,12 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -437,420 +454,420 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Methods</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>FPS</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>SegLink[26]</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>70.0</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>86.0</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>77.0</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>PixelLink [4]</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>73.2</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>83.0</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>77.8</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>TextSnake[18]</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>73.9</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>83.2</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>78.3</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>TextField [37]</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>75.9</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>87.4</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>81.3</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>5.2</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>MSR[38]</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>76.7</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>87.4</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>81.7</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>FTSN [3]</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>77.1</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>87.6</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>82.0</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>LSE[30]</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>81.7</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>84.2</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>82.9</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>CRAFT [2]</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>78.2</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>88.2</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>82.9</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>8.6</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>MCN[16]</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>88</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>83</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>ATRR[35]</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>82.1</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>85.2</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>83.6</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>PAN [34]</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>83.8</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>84.4</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>84.1</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>30.2</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>DB[12]</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>79.2</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>91.5</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>84.9</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>32.0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>DRRG [41]</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>82.30</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>88.05</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>85.08</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>Ours (SynText)</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>80.68</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>85.40</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>82.97</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>12.68</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Ours (MLT-17)</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>84.54</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>86.62</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>85.57</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>12.31</t>
         </is>

--- a/kvision/ksample/mytable/result/003_b91f8.xlsx
+++ b/kvision/ksample/mytable/result/003_b91f8.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -57,6 +57,20 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -64,12 +78,15 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -454,420 +471,420 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Methods</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>FPS</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>SegLink[26]</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>70.0</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>86.0</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>77.0</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>PixelLink [4]</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>73.2</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>83.0</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>77.8</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>TextSnake[18]</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>73.9</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>83.2</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>78.3</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>TextField [37]</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>75.9</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>87.4</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>81.3</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>5.2</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>MSR[38]</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>76.7</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>87.4</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>81.7</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>FTSN [3]</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>77.1</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>87.6</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>82.0</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>LSE[30]</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>81.7</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>84.2</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>82.9</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>CRAFT [2]</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>78.2</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>88.2</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>82.9</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>8.6</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>MCN[16]</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>88</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>83</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>ATRR[35]</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>82.1</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>85.2</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>83.6</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr"/>
+      <c r="E11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>PAN [34]</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>83.8</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>84.4</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>84.1</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>30.2</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>DB[12]</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>79.2</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>91.5</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>84.9</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>32.0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>DRRG [41]</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>82.30</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>88.05</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>85.08</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr"/>
+      <c r="E14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>Ours (SynText)</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>80.68</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>85.40</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>82.97</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>12.68</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>Ours (MLT-17)</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>84.54</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>86.62</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>85.57</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>12.31</t>
         </is>

--- a/kvision/ksample/mytable/result/003_b91f8.xlsx
+++ b/kvision/ksample/mytable/result/003_b91f8.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -71,6 +71,20 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -78,7 +92,7 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
@@ -87,6 +101,9 @@
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -471,420 +488,420 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Methods</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>FPS</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>SegLink[26]</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>70.0</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>86.0</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>77.0</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>PixelLink [4]</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>73.2</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>83.0</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>77.8</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>TextSnake[18]</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>73.9</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>83.2</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>78.3</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>TextField [37]</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>75.9</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>87.4</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>81.3</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>5.2</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>MSR[38]</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>76.7</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>87.4</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>81.7</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>FTSN [3]</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>77.1</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>87.6</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>82.0</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>LSE[30]</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>81.7</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>84.2</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>82.9</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>CRAFT [2]</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>78.2</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>88.2</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>82.9</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>8.6</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>MCN[16]</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>88</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>83</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>ATRR[35]</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>82.1</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>85.2</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>83.6</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>PAN [34]</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>83.8</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>84.4</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>84.1</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>30.2</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>DB[12]</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>79.2</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>91.5</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>84.9</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>32.0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>DRRG [41]</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>82.30</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>88.05</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>85.08</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr"/>
+      <c r="E14" s="4" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>Ours (SynText)</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>80.68</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>85.40</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>82.97</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>12.68</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Ours (MLT-17)</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>84.54</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>86.62</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>85.57</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>12.31</t>
         </is>
